--- a/working/工作日志.杨炜.4月份.xlsx
+++ b/working/工作日志.杨炜.4月份.xlsx
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2032,7 +2032,9 @@
       <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D38" s="10" t="s">
         <v>63</v>
       </c>

--- a/working/工作日志.杨炜.4月份.xlsx
+++ b/working/工作日志.杨炜.4月份.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>下周计划</t>
   </si>
@@ -216,6 +216,17 @@
     <t>无界财富一新手指导【教你玩转无界财富P2B平台】
 无界财富,新手指导
 无界财富新手指导一旨在教无界财富新用户玩转P2B平台,更好的投资理财,赚取积分,要知道无界财富的积分比钱还值钱哟!</t>
+  </si>
+  <si>
+    <t>在P2B平台页面添加头部信息</t>
+  </si>
+  <si>
+    <t>押后</t>
+  </si>
+  <si>
+    <t>P2B理财大讲堂—辨别P2B网贷风险选择安全的P2B平台投资【官网】
+P2B,P2B网贷,P2B风险,P2B安全吗,P2B平台,P2B理财大讲堂
+P2B理财大讲堂深入讲解p2b是什么意思?网贷p2b与p2p的区别，p2b理财安全吗？p2b有什么风险？P2B平台有哪些？教你选择安全的P2B平台投资。</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -286,7 +297,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -606,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +784,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1145,195 +1168,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="54" customWidth="1"/>
-    <col min="4" max="5" width="9" style="54"/>
-    <col min="6" max="6" width="15.625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="4.625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="56" customWidth="1"/>
+    <col min="4" max="5" width="9" style="56"/>
+    <col min="6" max="6" width="15.625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="56" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="59">
+      <c r="A4" s="61">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="59">
+      <c r="A5" s="61">
         <v>2</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="59">
+      <c r="A6" s="61">
         <v>3</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="59">
+      <c r="A7" s="61">
         <v>4</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="62"/>
+      <c r="F21" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1355,7 +1378,7 @@
   <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1907,10 +1930,10 @@
       <c r="A32" s="9">
         <v>2</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="10" t="s">
         <v>41</v>
       </c>
@@ -1927,10 +1950,10 @@
       <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="10" t="s">
         <v>45</v>
       </c>
@@ -2045,13 +2068,19 @@
       <c r="G38" s="10"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" ht="132" spans="1:8">
       <c r="A39" s="9">
         <v>9</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="E39" s="13"/>
       <c r="F39" s="9">
         <v>9</v>
@@ -2130,14 +2159,14 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="4"/>

--- a/working/工作日志.杨炜.4月份.xlsx
+++ b/working/工作日志.杨炜.4月份.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>下周计划</t>
   </si>
@@ -229,6 +229,88 @@
 P2B理财大讲堂深入讲解p2b是什么意思?网贷p2b与p2p的区别，p2b理财安全吗？p2b有什么风险？P2B平台有哪些？教你选择安全的P2B平台投资。</t>
   </si>
   <si>
+    <t>2日工作日志（周四）</t>
+  </si>
+  <si>
+    <t>3日工作计划（周五）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在P2B平台页面添加头部信息（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>➹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.1）</t>
+    </r>
+  </si>
+  <si>
+    <t>修正理财产品页面</t>
+  </si>
+  <si>
+    <t>改的那几个文件记录一下，传给明林
+http://www.wjcaifu.com/ProductSeries/seriesProduct/sid/1
+弹出窗口修正
+后台投资管理-系列产品-banner图</t>
+  </si>
+  <si>
+    <t>修正新手指导链接</t>
+  </si>
+  <si>
+    <t>*从文鼎那边获取链接地址
+*点击每个按钮先判断是否登录决定是否弹出登录框，在登录之后回到新手引导页面并且</t>
+  </si>
+  <si>
+    <t>线上首页添加可信网站图标</t>
+  </si>
+  <si>
+    <t>发送给明林上传，上传成功后通知梁超</t>
+  </si>
+  <si>
+    <t>改变链接显示颜色</t>
+  </si>
+  <si>
+    <t>初始状态：#333
+触发状态：#039=》#39f</t>
+  </si>
+  <si>
+    <t>安装X-mind</t>
+  </si>
+  <si>
+    <t>3日工作日志（周五）</t>
+  </si>
+  <si>
+    <t>7日工作计划（周一）</t>
+  </si>
+  <si>
+    <t>首页第一屏小动画</t>
+  </si>
+  <si>
+    <t>完成首页第五屏</t>
+  </si>
+  <si>
+    <t>完成首页第四屏</t>
+  </si>
+  <si>
     <t>日工作日志（周）</t>
   </si>
   <si>
@@ -240,12 +322,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -296,8 +378,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +416,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -623,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,12 +866,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1168,195 +1244,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="56" customWidth="1"/>
-    <col min="4" max="5" width="9" style="56"/>
-    <col min="6" max="6" width="15.625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="56" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="54" customWidth="1"/>
+    <col min="4" max="5" width="9" style="54"/>
+    <col min="6" max="6" width="15.625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="54" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="61">
+      <c r="A4" s="59">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="61">
+      <c r="A5" s="59">
         <v>2</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="61">
+      <c r="A6" s="59">
         <v>3</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="61">
+      <c r="A7" s="59">
         <v>4</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="64"/>
+      <c r="F21" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1375,10 +1451,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1930,10 +2006,10 @@
       <c r="A32" s="9">
         <v>2</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="10" t="s">
         <v>41</v>
       </c>
@@ -1950,10 +2026,10 @@
       <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="55"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="10" t="s">
         <v>45</v>
       </c>
@@ -2030,10 +2106,10 @@
       <c r="A37" s="9">
         <v>7</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="53" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -2072,10 +2148,10 @@
       <c r="A39" s="9">
         <v>9</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="53" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -2114,9 +2190,454 @@
       <c r="G41" s="16"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="138" ht="13.5"/>
+    <row r="43" ht="18" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" ht="21" spans="1:8">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9">
+        <v>1</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" ht="49.5" spans="1:8">
+      <c r="A46" s="9">
+        <v>2</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="9">
+        <v>2</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9">
+        <v>3</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="9">
+        <v>3</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" ht="82.5" spans="1:8">
+      <c r="A48" s="9">
+        <v>4</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="9">
+        <v>4</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" ht="66" spans="1:8">
+      <c r="A49" s="9">
+        <v>5</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="9">
+        <v>5</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9">
+        <v>6</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="9">
+        <v>6</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9">
+        <v>7</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="9">
+        <v>7</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" ht="33" spans="1:8">
+      <c r="A52" s="9">
+        <v>8</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="9">
+        <v>8</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9">
+        <v>9</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="9">
+        <v>9</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9">
+        <v>10</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="9">
+        <v>10</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="57" ht="18" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" ht="21" spans="1:8">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="9">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="9">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="9">
+        <v>2</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="9">
+        <v>2</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="9">
+        <v>3</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="9">
+        <v>3</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="9">
+        <v>4</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="9">
+        <v>4</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="9">
+        <v>5</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="9">
+        <v>5</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="9">
+        <v>6</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="9">
+        <v>6</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="9">
+        <v>7</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="9">
+        <v>7</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="9">
+        <v>8</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="9">
+        <v>8</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="9">
+        <v>9</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="9">
+        <v>9</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="9">
+        <v>10</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="9">
+        <v>10</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="15"/>
+      <c r="B69" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B13:G13"/>
@@ -2126,9 +2647,17 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="H1:H13"/>
     <mergeCell ref="H15:H27"/>
     <mergeCell ref="H29:H41"/>
+    <mergeCell ref="H43:H55"/>
+    <mergeCell ref="H57:H69"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2159,14 +2688,14 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="4"/>

--- a/working/工作日志.杨炜.4月份.xlsx
+++ b/working/工作日志.杨炜.4月份.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28710" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="周计划" sheetId="1" r:id="rId1"/>
     <sheet name="第一周" sheetId="2" r:id="rId2"/>
-    <sheet name="模板" sheetId="3" r:id="rId3"/>
+    <sheet name="第二周" sheetId="3" r:id="rId3"/>
+    <sheet name="模板" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>下周计划</t>
   </si>
@@ -311,6 +312,48 @@
     <t>完成首页第四屏</t>
   </si>
   <si>
+    <t>7日工作日志（周二）</t>
+  </si>
+  <si>
+    <t>8日工作计划（周三）</t>
+  </si>
+  <si>
+    <t>修正微信图标显示效果</t>
+  </si>
+  <si>
+    <t>新手引导页面添加登录框</t>
+  </si>
+  <si>
+    <t>添加首页底部链接</t>
+  </si>
+  <si>
+    <t>修正footer底部图标显示</t>
+  </si>
+  <si>
+    <t>细分js文件并修正调用路径</t>
+  </si>
+  <si>
+    <t>制作网贷讲堂页面</t>
+  </si>
+  <si>
+    <t>8日工作日志（周三）</t>
+  </si>
+  <si>
+    <t>9日工作计划（周四）</t>
+  </si>
+  <si>
+    <t>从文鼎那里获取相关链接</t>
+  </si>
+  <si>
+    <t>增加首页表单</t>
+  </si>
+  <si>
+    <t>替换其他栏目的底部和头部</t>
+  </si>
+  <si>
+    <t>修正首页第二屏</t>
+  </si>
+  <si>
     <t>日工作日志（周）</t>
   </si>
   <si>
@@ -322,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1453,8 +1496,8 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2377,7 +2420,9 @@
       <c r="B52" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D52" s="10" t="s">
         <v>77</v>
       </c>
@@ -2668,6 +2713,536 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+    <col min="8" max="8" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="21" spans="1:8">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" ht="33" spans="1:8">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:8">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" ht="33" spans="1:8">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:8">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="9">
+        <v>8</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:8">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="9">
+        <v>9</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9">
+        <v>11</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="16" ht="18" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" ht="21" spans="1:8">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" ht="33" spans="1:8">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:8">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:8">
+      <c r="A20" s="9">
+        <v>3</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" ht="33" spans="1:8">
+      <c r="A21" s="9">
+        <v>4</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="9">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
+      <c r="A22" s="9">
+        <v>5</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="9">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:8">
+      <c r="A23" s="9">
+        <v>6</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="9">
+        <v>6</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:8">
+      <c r="A24" s="9">
+        <v>7</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9">
+        <v>7</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:8">
+      <c r="A25" s="9">
+        <v>8</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="9">
+        <v>8</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:8">
+      <c r="A26" s="9">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9">
+        <v>9</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:8">
+      <c r="A27" s="9">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="9">
+        <v>10</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:8">
+      <c r="A28" s="9">
+        <v>11</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9">
+        <v>11</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H1:H14"/>
+    <mergeCell ref="H16:H29"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2688,14 +3263,14 @@
   <sheetData>
     <row r="1" ht="18" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="4"/>

--- a/working/工作日志.杨炜.4月份.xlsx
+++ b/working/工作日志.杨炜.4月份.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28710" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="周计划" sheetId="1" r:id="rId1"/>
     <sheet name="第一周" sheetId="2" r:id="rId2"/>
     <sheet name="第二周" sheetId="3" r:id="rId3"/>
-    <sheet name="模板" sheetId="4" r:id="rId4"/>
+    <sheet name="第三周" sheetId="4" r:id="rId4"/>
+    <sheet name="模板" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>下周计划</t>
   </si>
@@ -345,6 +346,35 @@
     <t>从文鼎那里获取相关链接</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在P2B平台页面添加头部信息（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>➹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.1）</t>
+    </r>
+  </si>
+  <si>
     <t>增加首页表单</t>
   </si>
   <si>
@@ -352,6 +382,276 @@
   </si>
   <si>
     <t>修正首页第二屏</t>
+  </si>
+  <si>
+    <t>9日工作日志（周四）</t>
+  </si>
+  <si>
+    <t>10日工作计划（周五）</t>
+  </si>
+  <si>
+    <t>替换finder.html至finder8.html的底部和头部</t>
+  </si>
+  <si>
+    <t>修正finder.html中DD_belatedPNG的路径</t>
+  </si>
+  <si>
+    <t>针对layout文件夹里面文件</t>
+  </si>
+  <si>
+    <t>头部都添加html5shiv</t>
+  </si>
+  <si>
+    <t>去除多余的可信图标</t>
+  </si>
+  <si>
+    <t>去除页面中不使用的汇客通插件</t>
+  </si>
+  <si>
+    <t>针对layout文件夹里面文件
+-----------------------------------------
+&lt;!-- 汇客通 在线客服 --&gt;
+ &lt;script type="text/javascript" src="https://c1011184.bizapp.com/OnlineService/online1.php"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>去除旧的头部控制js</t>
+  </si>
+  <si>
+    <t>针对layout文件夹里面文件
+------------------------------------------
+$(function(){$(".menu").hover(function(){$(".loginh").show();$(".loginq").show();},function(){$(".loginh").hide();$(".loginq").hide();});$(".loginq").mouseleave(function(){$(".loginq").hide();});$(".loginh").mouseleave(function(){$(".loginh").hide();});$(".menu1").hover(function(){$(".manage").show();},function(){$(".manage").hide();});$(".menu1").click(function(){$(".manage").hide();});$(".tj").click(function(){$(".email1").hide();$(".email2").show();});$(".img1").click(function(){$(".email").hide();});$(".qmjss").click(function(){$(".qmjsbox").show();});$(".imgc").click(function(){$(".qmjsbox").hide();});});</t>
+  </si>
+  <si>
+    <t>修正测试环境下的news.js和common.js</t>
+  </si>
+  <si>
+    <t>功能混淆需修正</t>
+  </si>
+  <si>
+    <t>修正嵌入式样式错误</t>
+  </si>
+  <si>
+    <t>底部背景漂浮到顶部问题</t>
+  </si>
+  <si>
+    <t>修改嵌入式头部尾部</t>
+  </si>
+  <si>
+    <t>10日工作日志（周五）</t>
+  </si>
+  <si>
+    <t>11日工作计划（周六）</t>
+  </si>
+  <si>
+    <t>修改_layout文件夹下文件</t>
+  </si>
+  <si>
+    <t>finder.html-完成
+finder1.html-完成
+finder2.html-完成
+finder3.html-完成
+finder4.html-完成
+finder5.html-完成
+finder6.html-完成
+finder7.html-完成
+finder8.html-完成</t>
+  </si>
+  <si>
+    <t>注意保留原先的block，避免子模块无法出现</t>
+  </si>
+  <si>
+    <t>重置404页面</t>
+  </si>
+  <si>
+    <t>应用finder为新页面模板，应用finder1替换之前的finder模板</t>
+  </si>
+  <si>
+    <t>方便后期管理</t>
+  </si>
+  <si>
+    <t>修改common.js和block.css文件</t>
+  </si>
+  <si>
+    <t>旧的css、js指定文件</t>
+  </si>
+  <si>
+    <t>将线上的合作伙伴弄进模板</t>
+  </si>
+  <si>
+    <t>整合首页模板</t>
+  </si>
+  <si>
+    <t>修正底部两个链接</t>
+  </si>
+  <si>
+    <t>去掉一个，修改一个</t>
+  </si>
+  <si>
+    <t>合并finder.html和finder8.html</t>
+  </si>
+  <si>
+    <t>新首页统一头部模板</t>
+  </si>
+  <si>
+    <t>修正头部部分代码</t>
+  </si>
+  <si>
+    <t>显示标题描述关键字错误等</t>
+  </si>
+  <si>
+    <t>修正资金去向页面</t>
+  </si>
+  <si>
+    <t>http://192.168.3.211:81/quxiang</t>
+  </si>
+  <si>
+    <t>添加首页注册表单</t>
+  </si>
+  <si>
+    <t>重新分离方法以适应新的后台判断方式</t>
+  </si>
+  <si>
+    <t>替换顶级域名为后台代码</t>
+  </si>
+  <si>
+    <t>11日工作日志（周六）</t>
+  </si>
+  <si>
+    <t>13日工作计划（周一）</t>
+  </si>
+  <si>
+    <t>制作表单切换效果</t>
+  </si>
+  <si>
+    <t>添加首页登录表单</t>
+  </si>
+  <si>
+    <t>添加登陆后表单框状态</t>
+  </si>
+  <si>
+    <t>13日工作日志（周一）</t>
+  </si>
+  <si>
+    <t>14日工作计划（周二）</t>
+  </si>
+  <si>
+    <t>修改首页表单提示方式</t>
+  </si>
+  <si>
+    <t>增加:focus验证</t>
+  </si>
+  <si>
+    <t>修正404页面</t>
+  </si>
+  <si>
+    <t>隐藏新手引导</t>
+  </si>
+  <si>
+    <t>待新手引导上线再添加</t>
+  </si>
+  <si>
+    <t>对P2B大讲堂页面进行切图</t>
+  </si>
+  <si>
+    <t>首页响应式制作</t>
+  </si>
+  <si>
+    <t>首页第一屏跳转到新标签打开</t>
+  </si>
+  <si>
+    <t>我同意---- 这个地方的 那个勾 如果没选 点注册 是会刷新页面的</t>
+  </si>
+  <si>
+    <t>提示语——请阅读并同意《用户注册协议》</t>
+  </si>
+  <si>
+    <t>登录状态判断类型从tel改成authId</t>
+  </si>
+  <si>
+    <t>登录框在正确之后不显示绿色正确图片，直接隐藏</t>
+  </si>
+  <si>
+    <t>首页IE兼容</t>
+  </si>
+  <si>
+    <t>底部信用图标添加链接</t>
+  </si>
+  <si>
+    <t>弹出二维码的时候鼠标移至空白处显示“点击退出”</t>
+  </si>
+  <si>
+    <t>通过ie-hack修正表单圆角（IE下直接使用背景图片）</t>
+  </si>
+  <si>
+    <t>制作p2b大讲堂页面</t>
+  </si>
+  <si>
+    <t>14日工作日志（周二）</t>
+  </si>
+  <si>
+    <t>15日工作计划（周三）</t>
+  </si>
+  <si>
+    <t>替换首页查看更多链接</t>
+  </si>
+  <si>
+    <t>/chanpin
+改成
+/ProductSeries/seriesProduct/sid/125</t>
+  </si>
+  <si>
+    <t>替换首页导航产品链接</t>
+  </si>
+  <si>
+    <t>修改产品页面重新设计</t>
+  </si>
+  <si>
+    <t>仅修改弹窗部分
+登录按钮跳转到登录页面，登录后跳转回来</t>
+  </si>
+  <si>
+    <t>修正首页bug</t>
+  </si>
+  <si>
+    <t>15日工作日志（周三）</t>
+  </si>
+  <si>
+    <t>16日工作计划（周四）</t>
+  </si>
+  <si>
+    <t>替换样式即可</t>
+  </si>
+  <si>
+    <t>首页模块的公司动态和资讯信息更改关键字和交互操作</t>
+  </si>
+  <si>
+    <t>1.公司动态和资讯信息改成“动态信息”和”网站公告“
+2.交互操作“hover切换”改为“点击切换”</t>
+  </si>
+  <si>
+    <t>资讯页前台样式写死</t>
+  </si>
+  <si>
+    <t>www.p2b110.com/wujiecaifu/1575.html     参考此网站，正文间距拉开。</t>
+  </si>
+  <si>
+    <t>去掉首页查看更多的上下两条杠杠</t>
+  </si>
+  <si>
+    <t>直接线条透明处理</t>
+  </si>
+  <si>
+    <t>首页底部链接交互修改</t>
+  </si>
+  <si>
+    <t>hover状态下仅改变颜色</t>
+  </si>
+  <si>
+    <t>查看更多的交互修改</t>
+  </si>
+  <si>
+    <t>三个查看更多的交互方式不统一
+统一改成hover 变颜色</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -365,12 +665,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -407,6 +707,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -728,27 +1035,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,47 +1071,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -932,20 +1248,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1287,195 +1604,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="54" customWidth="1"/>
-    <col min="4" max="5" width="9" style="54"/>
-    <col min="6" max="6" width="15.625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="4.625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="56" customWidth="1"/>
+    <col min="4" max="5" width="9" style="56"/>
+    <col min="6" max="6" width="15.625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="56" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="59">
+      <c r="A4" s="61">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="59">
-        <v>2</v>
-      </c>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="61">
+        <v>2</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="59">
+      <c r="A6" s="61">
         <v>3</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="59">
+      <c r="A7" s="61">
         <v>4</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="62"/>
+      <c r="F21" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1496,7 +1813,7 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1825,7 @@
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
@@ -1518,226 +1835,226 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="19"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="21.75" spans="1:8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="27"/>
+      <c r="G2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" ht="50.25" spans="1:8">
-      <c r="A3" s="28">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="28">
+      <c r="C3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30">
         <v>1</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" ht="33" spans="1:8">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34">
-        <v>2</v>
-      </c>
-      <c r="G4" s="37" t="s">
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="36">
+        <v>2</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="34">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="34">
+      <c r="E5" s="38"/>
+      <c r="F5" s="36">
         <v>3</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="38">
+      <c r="A6" s="40">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="34">
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="36">
         <v>4</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" ht="33" spans="1:8">
-      <c r="A7" s="38">
+      <c r="A7" s="40">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="34">
+      <c r="E7" s="38"/>
+      <c r="F7" s="36">
         <v>5</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="38">
+      <c r="A8" s="40">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34">
+      <c r="D8" s="44"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="36">
         <v>6</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="34">
+      <c r="B9" s="42"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="36">
         <v>7</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="34">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="34">
+      <c r="B10" s="31"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="36">
         <v>8</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="34">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="34">
+      <c r="B11" s="31"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="36">
         <v>9</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="27"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" ht="17.25" spans="1:8">
-      <c r="A12" s="34">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="46">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="48">
         <v>10</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="27"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="18"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="15" ht="18" spans="1:8">
       <c r="A15" s="2" t="s">
@@ -1751,245 +2068,245 @@
         <v>38</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="8"/>
+      <c r="G16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" ht="49.5" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9">
+      <c r="E17" s="10"/>
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9">
-        <v>2</v>
-      </c>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9">
+      <c r="E19" s="11"/>
+      <c r="F19" s="7">
         <v>3</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>4</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9">
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9">
+      <c r="C21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7">
         <v>5</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" ht="33" spans="1:8">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9">
+      <c r="E22" s="11"/>
+      <c r="F22" s="7">
         <v>6</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" ht="49.5" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>7</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="9">
+      <c r="E23" s="11"/>
+      <c r="F23" s="7">
         <v>7</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" ht="33" spans="1:8">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>8</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9">
+      <c r="E24" s="11"/>
+      <c r="F24" s="7">
         <v>8</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" ht="49.5" spans="1:8">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>9</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="9">
+      <c r="C25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7">
         <v>9</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>10</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9">
+      <c r="E26" s="11"/>
+      <c r="F26" s="7">
         <v>10</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="8"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="29" ht="18" spans="1:8">
       <c r="A29" s="2" t="s">
@@ -2003,235 +2320,235 @@
         <v>57</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" ht="21" spans="1:8">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="8"/>
+      <c r="G30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" ht="49.5" spans="1:8">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>1</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="9">
+      <c r="C31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9">
-        <v>2</v>
-      </c>
-      <c r="B32" s="52" t="s">
+      <c r="A32" s="7">
+        <v>2</v>
+      </c>
+      <c r="B32" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="54"/>
+      <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="9">
-        <v>2</v>
-      </c>
-      <c r="G32" s="14" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="7">
+        <v>2</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" ht="33" spans="1:8">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>3</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9">
+      <c r="E33" s="11"/>
+      <c r="F33" s="7">
         <v>3</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>4</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="9">
+      <c r="C34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="7">
         <v>4</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>5</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="9">
+      <c r="C35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="7">
         <v>5</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>6</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="9">
+      <c r="C36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="7">
         <v>6</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>7</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="9">
+      <c r="E37" s="11"/>
+      <c r="F37" s="7">
         <v>7</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" ht="115.5" spans="1:8">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>8</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="9">
+      <c r="E38" s="11"/>
+      <c r="F38" s="7">
         <v>8</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" ht="132" spans="1:8">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>9</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="9">
+      <c r="E39" s="11"/>
+      <c r="F39" s="7">
         <v>9</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>10</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="9">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7">
         <v>10</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="8"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="43" ht="18" spans="1:8">
       <c r="A43" s="2" t="s">
@@ -2245,239 +2562,239 @@
         <v>68</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" ht="21" spans="1:8">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="8"/>
+      <c r="G44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>1</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="9">
+      <c r="E45" s="10"/>
+      <c r="F45" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" ht="49.5" spans="1:8">
-      <c r="A46" s="9">
-        <v>2</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="7">
+        <v>2</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="9">
-        <v>2</v>
-      </c>
-      <c r="G46" s="14" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="7">
+        <v>2</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>3</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="9">
+      <c r="E47" s="11"/>
+      <c r="F47" s="7">
         <v>3</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" ht="82.5" spans="1:8">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>4</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="9">
+      <c r="E48" s="11"/>
+      <c r="F48" s="7">
         <v>4</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" ht="66" spans="1:8">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>5</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="9">
+      <c r="E49" s="11"/>
+      <c r="F49" s="7">
         <v>5</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>6</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="9">
+      <c r="D50" s="8"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="7">
         <v>6</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>7</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="C51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="9">
+      <c r="E51" s="11"/>
+      <c r="F51" s="7">
         <v>7</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" ht="33" spans="1:8">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>8</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="9">
+      <c r="E52" s="11"/>
+      <c r="F52" s="7">
         <v>8</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>9</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="9">
+      <c r="C53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7">
         <v>9</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>10</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="9">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7">
         <v>10</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="8"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="57" ht="18" spans="1:8">
       <c r="A57" s="2" t="s">
@@ -2491,195 +2808,195 @@
         <v>80</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" ht="21" spans="1:8">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="8"/>
+      <c r="G58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="18"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>1</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="9">
+      <c r="C59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="7">
         <v>1</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="9">
-        <v>2</v>
-      </c>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="7">
+        <v>2</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="9">
-        <v>2</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="7">
+        <v>2</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>3</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="9">
+      <c r="C61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="7">
         <v>3</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="9">
+      <c r="A62" s="7">
         <v>4</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="9">
+      <c r="D62" s="8"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="7">
         <v>4</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>5</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="9">
+      <c r="B63" s="12"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="7">
         <v>5</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>6</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="9">
+      <c r="B64" s="12"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="7">
         <v>6</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>7</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="9">
+      <c r="B65" s="12"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="7">
         <v>7</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>8</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="9">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="7">
         <v>8</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>9</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="9">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="7">
         <v>9</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="9">
+      <c r="A68" s="7">
         <v>10</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="9">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="7">
         <v>10</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="8"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2713,10 +3030,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2743,241 +3060,241 @@
         <v>85</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" ht="21" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9">
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="9">
-        <v>2</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="9">
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" ht="33" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9">
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7">
         <v>4</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="9">
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9">
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" ht="33" spans="1:8">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9">
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" ht="16.5" spans="1:8">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="9">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7">
         <v>8</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7">
         <v>9</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" ht="16.5" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7">
         <v>10</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" ht="16.5" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7">
         <v>11</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" ht="16.5" spans="1:8">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="16" ht="18" spans="1:8">
       <c r="A16" s="2" t="s">
@@ -2991,249 +3308,987 @@
         <v>93</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="21" spans="1:8">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="8"/>
+      <c r="G17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" ht="33" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9">
+      <c r="C18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" ht="16.5" spans="1:8">
-      <c r="A19" s="9">
-        <v>2</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9">
-        <v>2</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" ht="16.5" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" ht="33" spans="1:8">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7">
+        <v>4</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:8">
+      <c r="A23" s="7">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7">
+        <v>6</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:8">
+      <c r="A24" s="7">
+        <v>7</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7">
+        <v>7</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:8">
+      <c r="A25" s="7">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7">
+        <v>8</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:8">
+      <c r="A26" s="7">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7">
+        <v>9</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:8">
+      <c r="A27" s="7">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7">
+        <v>10</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:8">
+      <c r="A28" s="7">
+        <v>11</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7">
+        <v>11</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:8">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="31" ht="18" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" ht="21" spans="1:8">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:8">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" ht="49.5" spans="1:8">
+      <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="7">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" ht="33" spans="1:8">
+      <c r="A35" s="7">
+        <v>3</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="7">
+        <v>3</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:8">
+      <c r="A36" s="7">
+        <v>4</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:8">
+      <c r="A37" s="7">
+        <v>5</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="7">
+        <v>5</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" ht="99" spans="1:8">
+      <c r="A38" s="7">
+        <v>6</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="7">
+        <v>6</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" ht="264" spans="1:8">
+      <c r="A39" s="7">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="7">
+        <v>7</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" ht="33" spans="1:8">
+      <c r="A40" s="7">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7">
+        <v>8</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:8">
+      <c r="A41" s="7">
+        <v>9</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7">
+        <v>9</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:8">
+      <c r="A42" s="7">
+        <v>10</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9">
+      <c r="D42" s="8"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7">
+        <v>10</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:8">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="45" ht="18" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" ht="21" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" ht="148.5" spans="1:7">
+      <c r="A47" s="7">
+        <v>1</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" ht="49.5" spans="1:7">
+      <c r="A48" s="7">
+        <v>2</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7">
+        <v>2</v>
+      </c>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" ht="33" spans="1:7">
+      <c r="A49" s="7">
         <v>3</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="33" spans="1:8">
-      <c r="A21" s="9">
+      <c r="B49" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="7">
+        <v>3</v>
+      </c>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" ht="33" spans="1:7">
+      <c r="A50" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B50" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="7">
+        <v>4</v>
+      </c>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" ht="16.5" spans="1:7">
+      <c r="A51" s="7">
+        <v>5</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="7">
+        <v>5</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" ht="16.5" spans="1:7">
+      <c r="A52" s="7">
+        <v>6</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7">
+        <v>6</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" ht="33" spans="1:7">
+      <c r="A53" s="7">
+        <v>7</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7">
+        <v>7</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" ht="16.5" spans="1:7">
+      <c r="A54" s="7">
+        <v>8</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7">
+        <v>8</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" ht="16.5" spans="1:7">
+      <c r="A55" s="7">
+        <v>9</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9">
+      <c r="D55" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7">
+        <v>9</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" ht="16.5" spans="1:7">
+      <c r="A56" s="7">
+        <v>10</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7">
+        <v>10</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" ht="16.5" spans="1:7">
+      <c r="A57" s="7">
+        <v>11</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7">
+        <v>11</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" ht="16.5" spans="1:7">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="60" ht="18" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" ht="21" spans="1:7">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="1:7">
+      <c r="A62" s="7">
+        <v>1</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" ht="16.5" spans="1:7">
+      <c r="A63" s="7">
+        <v>2</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="7">
+        <v>2</v>
+      </c>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" ht="16.5" spans="1:7">
+      <c r="A64" s="7">
+        <v>3</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="7">
+        <v>3</v>
+      </c>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" ht="16.5" spans="1:7">
+      <c r="A65" s="7">
         <v>4</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:8">
-      <c r="A22" s="9">
+      <c r="B65" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="7">
+        <v>4</v>
+      </c>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" ht="16.5" spans="1:7">
+      <c r="A66" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9">
+      <c r="B66" s="12"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="7">
         <v>5</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:8">
-      <c r="A23" s="9">
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" ht="16.5" spans="1:7">
+      <c r="A67" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="9">
+      <c r="B67" s="12"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="7">
         <v>6</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:8">
-      <c r="A24" s="9">
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" ht="16.5" spans="1:7">
+      <c r="A68" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9">
+      <c r="B68" s="12"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="7">
         <v>7</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:8">
-      <c r="A25" s="9">
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" ht="16.5" spans="1:7">
+      <c r="A69" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="9">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="7">
         <v>8</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:8">
-      <c r="A26" s="9">
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" ht="16.5" spans="1:7">
+      <c r="A70" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="7">
         <v>9</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:8">
-      <c r="A27" s="9">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" ht="16.5" spans="1:7">
+      <c r="A71" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="9">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="7">
         <v>10</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:8">
-      <c r="A28" s="9">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A72" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="9">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="7">
         <v>11</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:8">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A73" s="7">
+        <v>12</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="7">
+        <v>12</v>
+      </c>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" ht="16.5" spans="1:7">
+      <c r="A74" s="13"/>
+      <c r="B74" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="8"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B74:G74"/>
     <mergeCell ref="H1:H14"/>
     <mergeCell ref="H16:H29"/>
+    <mergeCell ref="H31:H43"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D55" r:id="rId1" display="http://192.168.3.211:81/quxiang"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3243,13 +4298,786 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+    <col min="8" max="8" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="21" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" ht="33" spans="1:7">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" ht="33" spans="1:7">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="49.5" spans="1:7">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="1:7">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="33" spans="1:7">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="49.5" spans="1:7">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="17" ht="18" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="21" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" ht="33" spans="1:7">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7">
+        <v>6</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7">
+        <v>8</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="7">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="7">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="7">
+        <v>11</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="7">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="33" ht="18" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="21" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:7">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:7">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" ht="49.5" spans="1:7">
+      <c r="A37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" ht="33" spans="1:7">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" ht="33" spans="1:7">
+      <c r="A39" s="7">
+        <v>5</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="7">
+        <v>6</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7">
+        <v>6</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" ht="33" spans="1:7">
+      <c r="A41" s="7">
+        <v>7</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7">
+        <v>7</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="7">
+        <v>8</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7">
+        <v>8</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:7">
+      <c r="A43" s="7">
+        <v>9</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7">
+        <v>9</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:7">
+      <c r="A44" s="7">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="7">
+        <v>10</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:7">
+      <c r="A45" s="7">
+        <v>11</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="7">
+        <v>11</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:7">
+      <c r="A46" s="7">
+        <v>12</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7">
+        <v>12</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:7">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="D19:D20"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H13"/>
+      <selection activeCell="A1" sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -3258,201 +5086,212 @@
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
-    <col min="8" max="8" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:8">
+    <row r="1" ht="18" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="21" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="2" ht="21" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="9">
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="9">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="9">
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="9">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9">
+      <c r="B6" s="12"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7">
         <v>4</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="9">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="9">
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="9">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9">
+      <c r="B8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:8">
-      <c r="A9" s="9">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9">
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:8">
-      <c r="A10" s="9">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="9">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7">
         <v>8</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="9">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7">
         <v>9</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:8">
-      <c r="A12" s="9">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7">
         <v>10</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:8">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="8"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H1:H13"/>
+    <mergeCell ref="B15:G15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/working/工作日志.杨炜.4月份.xlsx
+++ b/working/工作日志.杨炜.4月份.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28710" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="周计划" sheetId="1" r:id="rId1"/>
     <sheet name="第一周" sheetId="2" r:id="rId2"/>
     <sheet name="第二周" sheetId="3" r:id="rId3"/>
     <sheet name="第三周" sheetId="4" r:id="rId4"/>
-    <sheet name="模板" sheetId="5" r:id="rId5"/>
+    <sheet name="第四周" sheetId="5" r:id="rId5"/>
+    <sheet name="第五周" sheetId="6" r:id="rId6"/>
+    <sheet name="模板" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
   <si>
     <t>下周计划</t>
   </si>
@@ -651,7 +653,187 @@
   </si>
   <si>
     <t>三个查看更多的交互方式不统一
-统一改成hover 变颜色</t>
+统一改成 hover 变颜色</t>
+  </si>
+  <si>
+    <t>文字hover时的颜色与登录注册保持一致</t>
+  </si>
+  <si>
+    <t>#ff6600</t>
+  </si>
+  <si>
+    <t>16日工作日志（周四）</t>
+  </si>
+  <si>
+    <t>17日工作计划（周五）</t>
+  </si>
+  <si>
+    <t>首页自适应设计</t>
+  </si>
+  <si>
+    <t>制作活动页面</t>
+  </si>
+  <si>
+    <t>首页登录框绿色提示去掉</t>
+  </si>
+  <si>
+    <t>首页登录密码错误提醒</t>
+  </si>
+  <si>
+    <t>修正产品列表页面</t>
+  </si>
+  <si>
+    <t>http://192.168.3.22/ProductSeries/125.html</t>
+  </si>
+  <si>
+    <t>替换首页注册登录切换效果</t>
+  </si>
+  <si>
+    <t>修正首页2屏表格在IE7下高度</t>
+  </si>
+  <si>
+    <t>修改资讯页列表+内容页</t>
+  </si>
+  <si>
+    <t>导航+左侧栏浮动</t>
+  </si>
+  <si>
+    <t>17日工作日志（周五）</t>
+  </si>
+  <si>
+    <t>18日工作计划（周六）</t>
+  </si>
+  <si>
+    <t>更改首页banner图3个</t>
+  </si>
+  <si>
+    <t>去掉最后一个</t>
+  </si>
+  <si>
+    <t>18日工作日志（周六）</t>
+  </si>
+  <si>
+    <t>19日工作计划（周日）</t>
+  </si>
+  <si>
+    <t>19日工作日志（周日）</t>
+  </si>
+  <si>
+    <t>20日工作计划（周一）</t>
+  </si>
+  <si>
+    <t>20日工作日志（周一）</t>
+  </si>
+  <si>
+    <t>21日工作计划（周二）</t>
+  </si>
+  <si>
+    <t>21日工作日志（周二）</t>
+  </si>
+  <si>
+    <t>22日工作计划（周三）</t>
+  </si>
+  <si>
+    <t>活动页面自适应</t>
+  </si>
+  <si>
+    <t>页面图片缩小比例24%
+宽度缩至960</t>
+  </si>
+  <si>
+    <t>弹窗背景仅在IE下显示图片</t>
+  </si>
+  <si>
+    <t>添加百度统计代码</t>
+  </si>
+  <si>
+    <t>22日工作日志（周三）</t>
+  </si>
+  <si>
+    <t>23日工作计划（周四）</t>
+  </si>
+  <si>
+    <t>修正活动页bug</t>
+  </si>
+  <si>
+    <t>奖品盒问题</t>
+  </si>
+  <si>
+    <t>资讯中心引用百度完整的分享插件</t>
+  </si>
+  <si>
+    <t>首页+注册页=》注册添加短信验证</t>
+  </si>
+  <si>
+    <t>新手引导添加登录框</t>
+  </si>
+  <si>
+    <t>修正资讯页内容页js</t>
+  </si>
+  <si>
+    <t>23日工作日志（周四）</t>
+  </si>
+  <si>
+    <t>24日工作计划（周五）</t>
+  </si>
+  <si>
+    <t>修正产品列表样式</t>
+  </si>
+  <si>
+    <t>修改后台页面底部错误样式</t>
+  </si>
+  <si>
+    <t>/Public/css/block.css
+/*版权*/
+.footer {
+ width: 100%;
+ display:table;
+ height: 420px;
+ background: url(../images/footerbg.jpg) #eee repeat-x;
+ *margin-top:50px;
+}</t>
+  </si>
+  <si>
+    <t>新手引导高度以百分比定义</t>
+  </si>
+  <si>
+    <t>修正资讯页样式</t>
+  </si>
+  <si>
+    <t>24日工作日志（周五）</t>
+  </si>
+  <si>
+    <t>27日工作计划（周一）</t>
+  </si>
+  <si>
+    <t>修正资讯页公告文本样式</t>
+  </si>
+  <si>
+    <t>压缩图片</t>
+  </si>
+  <si>
+    <t>新首页banner图添加</t>
+  </si>
+  <si>
+    <t>新首页手机验证码</t>
+  </si>
+  <si>
+    <t>27日工作日志（周一）</t>
+  </si>
+  <si>
+    <t>28日工作计划（周二）</t>
+  </si>
+  <si>
+    <t>首页轮播第五屏修正</t>
+  </si>
+  <si>
+    <t>php根据屏幕大小调用不同media screen</t>
+  </si>
+  <si>
+    <t>兼容手机端显示，因手机端将会有，所以pc端页面不做手机版自适应</t>
+  </si>
+  <si>
+    <t>新手引导头部登录状态修正</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -665,10 +847,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1058,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1291,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1604,195 +1789,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="56" customWidth="1"/>
-    <col min="4" max="5" width="9" style="56"/>
-    <col min="6" max="6" width="15.625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="56" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="4.625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="57" customWidth="1"/>
+    <col min="4" max="5" width="9" style="57"/>
+    <col min="6" max="6" width="15.625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="57" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="61">
+      <c r="A4" s="62">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="61">
-        <v>2</v>
-      </c>
-      <c r="B5" s="61" t="s">
+      <c r="A5" s="62">
+        <v>2</v>
+      </c>
+      <c r="B5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="61">
+      <c r="A6" s="62">
         <v>3</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="61">
+      <c r="A7" s="62">
         <v>4</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="64"/>
+      <c r="F21" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1825,7 +2010,7 @@
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
@@ -1835,226 +2020,226 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="21"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="21.75" spans="1:8">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29"/>
+      <c r="G2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" ht="50.25" spans="1:8">
-      <c r="A3" s="30">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="30">
+      <c r="C3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="31">
         <v>1</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" ht="33" spans="1:8">
-      <c r="A4" s="36">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="37">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="36">
-        <v>2</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="37">
+        <v>2</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="36">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="36">
+      <c r="E5" s="39"/>
+      <c r="F5" s="37">
         <v>3</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="40">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="36">
+      <c r="D6" s="42"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="37">
         <v>4</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" ht="33" spans="1:8">
-      <c r="A7" s="40">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="36">
+      <c r="E7" s="39"/>
+      <c r="F7" s="37">
         <v>5</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="40">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36">
+      <c r="D8" s="45"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="37">
         <v>6</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="36">
+      <c r="A9" s="37">
         <v>7</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="36">
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="37">
         <v>7</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="36">
+      <c r="A10" s="37">
         <v>8</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="36">
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="37">
         <v>8</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="36">
+      <c r="A11" s="37">
         <v>9</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="36">
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="37">
         <v>9</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" ht="17.25" spans="1:8">
-      <c r="A12" s="36">
+      <c r="A12" s="37">
         <v>10</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="48">
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="49">
         <v>10</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="20"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="15" ht="18" spans="1:8">
       <c r="A15" s="2" t="s">
@@ -2068,7 +2253,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2090,7 +2275,7 @@
       <c r="G16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" ht="49.5" spans="1:8">
       <c r="A17" s="7">
@@ -2112,16 +2297,16 @@
       <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
         <v>2</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="56" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="8"/>
@@ -2132,16 +2317,16 @@
       <c r="G18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="8" t="s">
         <v>41</v>
       </c>
@@ -2152,7 +2337,7 @@
       <c r="G19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
@@ -2172,7 +2357,7 @@
       <c r="G20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7">
@@ -2192,16 +2377,16 @@
       <c r="G21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" ht="33" spans="1:8">
       <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2397,7 @@
       <c r="G22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" ht="49.5" spans="1:8">
       <c r="A23" s="7">
@@ -2234,7 +2419,7 @@
       <c r="G23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" ht="33" spans="1:8">
       <c r="A24" s="7">
@@ -2256,7 +2441,7 @@
       <c r="G24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" ht="49.5" spans="1:8">
       <c r="A25" s="7">
@@ -2274,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7">
@@ -2294,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="13"/>
@@ -2306,7 +2491,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="29" ht="18" spans="1:8">
       <c r="A29" s="2" t="s">
@@ -2320,7 +2505,7 @@
         <v>57</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" ht="21" spans="1:8">
       <c r="A30" s="4"/>
@@ -2340,7 +2525,7 @@
       <c r="G30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" ht="49.5" spans="1:8">
       <c r="A31" s="7">
@@ -2360,16 +2545,16 @@
       <c r="G31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>2</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
@@ -2380,16 +2565,16 @@
       <c r="G32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" ht="33" spans="1:8">
       <c r="A33" s="7">
         <v>3</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="55"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="8" t="s">
         <v>45</v>
       </c>
@@ -2400,7 +2585,7 @@
       <c r="G33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7">
@@ -2420,7 +2605,7 @@
       <c r="G34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7">
@@ -2440,7 +2625,7 @@
       <c r="G35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
@@ -2460,16 +2645,16 @@
       <c r="G36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7">
         <v>7</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="56" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -2482,7 +2667,7 @@
       <c r="G37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" ht="115.5" spans="1:8">
       <c r="A38" s="7">
@@ -2502,16 +2687,16 @@
         <v>8</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="18"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" ht="132" spans="1:8">
       <c r="A39" s="7">
         <v>9</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="56" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -2522,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="18"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
@@ -2536,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="18"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="13"/>
@@ -2548,7 +2733,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="15"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="18"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="43" ht="18" spans="1:8">
       <c r="A43" s="2" t="s">
@@ -2562,7 +2747,7 @@
         <v>68</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="17"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" ht="21" spans="1:8">
       <c r="A44" s="4"/>
@@ -2582,7 +2767,7 @@
       <c r="G44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -2599,10 +2784,10 @@
       <c r="F45" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="18"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" ht="49.5" spans="1:8">
       <c r="A46" s="7">
@@ -2622,7 +2807,7 @@
       <c r="G46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7">
@@ -2644,7 +2829,7 @@
       <c r="G47" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="18"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" ht="82.5" spans="1:8">
       <c r="A48" s="7">
@@ -2664,7 +2849,7 @@
       <c r="G48" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="18"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" ht="66" spans="1:8">
       <c r="A49" s="7">
@@ -2686,7 +2871,7 @@
       <c r="G49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="18"/>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7">
@@ -2706,7 +2891,7 @@
       <c r="G50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="18"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2728,7 +2913,7 @@
       <c r="G51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="18"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" ht="33" spans="1:8">
       <c r="A52" s="7">
@@ -2750,7 +2935,7 @@
       <c r="G52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="18"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7">
@@ -2768,7 +2953,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="8"/>
-      <c r="H53" s="18"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
@@ -2782,7 +2967,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="18"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
@@ -2794,7 +2979,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="15"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="18"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="57" ht="18" spans="1:8">
       <c r="A57" s="2" t="s">
@@ -2808,7 +2993,7 @@
         <v>80</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="17"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" ht="21" spans="1:8">
       <c r="A58" s="4"/>
@@ -2828,7 +3013,7 @@
       <c r="G58" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="18"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
@@ -2846,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="8"/>
-      <c r="H59" s="18"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
@@ -2864,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="8"/>
-      <c r="H60" s="18"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7">
@@ -2882,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="8"/>
-      <c r="H61" s="18"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
@@ -2900,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="G62" s="8"/>
-      <c r="H62" s="18"/>
+      <c r="H62" s="19"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -2914,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="8"/>
-      <c r="H63" s="18"/>
+      <c r="H63" s="19"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
@@ -2928,7 +3113,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="8"/>
-      <c r="H64" s="18"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="7">
@@ -2942,7 +3127,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="8"/>
-      <c r="H65" s="18"/>
+      <c r="H65" s="19"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
@@ -2956,7 +3141,7 @@
         <v>8</v>
       </c>
       <c r="G66" s="8"/>
-      <c r="H66" s="18"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7">
@@ -2970,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="8"/>
-      <c r="H67" s="18"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
@@ -2984,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="8"/>
-      <c r="H68" s="18"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="13"/>
@@ -2996,7 +3181,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="15"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="18"/>
+      <c r="H69" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3060,7 +3245,7 @@
         <v>85</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" ht="21" spans="1:8">
       <c r="A2" s="4"/>
@@ -3080,7 +3265,7 @@
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="7">
@@ -3100,7 +3285,7 @@
       <c r="G3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="7">
@@ -3120,7 +3305,7 @@
       <c r="G4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="7">
@@ -3140,7 +3325,7 @@
       <c r="G5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" ht="33" spans="1:8">
       <c r="A6" s="7">
@@ -3160,7 +3345,7 @@
       <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="7">
@@ -3178,7 +3363,7 @@
       <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="7">
@@ -3198,7 +3383,7 @@
       <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" ht="33" spans="1:8">
       <c r="A9" s="7">
@@ -3218,7 +3403,7 @@
       <c r="G9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" ht="16.5" spans="1:8">
       <c r="A10" s="7">
@@ -3234,7 +3419,7 @@
       <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="7">
@@ -3250,7 +3435,7 @@
       <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="7">
@@ -3266,7 +3451,7 @@
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="7">
@@ -3282,7 +3467,7 @@
       <c r="G13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="13"/>
@@ -3294,7 +3479,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="16" ht="18" spans="1:8">
       <c r="A16" s="2" t="s">
@@ -3308,7 +3493,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" ht="21" spans="1:8">
       <c r="A17" s="4"/>
@@ -3328,7 +3513,7 @@
       <c r="G17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" ht="33" spans="1:8">
       <c r="A18" s="7">
@@ -3348,7 +3533,7 @@
       <c r="G18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="7">
@@ -3370,7 +3555,7 @@
       <c r="G19" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="7">
@@ -3390,7 +3575,7 @@
       <c r="G20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" ht="33" spans="1:8">
       <c r="A21" s="7">
@@ -3410,7 +3595,7 @@
       <c r="G21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="7">
@@ -3430,7 +3615,7 @@
       <c r="G22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="7">
@@ -3446,7 +3631,7 @@
       <c r="G23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="7">
@@ -3462,7 +3647,7 @@
       <c r="G24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="7">
@@ -3478,7 +3663,7 @@
       <c r="G25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="7">
@@ -3494,7 +3679,7 @@
       <c r="G26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="7">
@@ -3510,7 +3695,7 @@
       <c r="G27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="7">
@@ -3526,7 +3711,7 @@
       <c r="G28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="13"/>
@@ -3538,7 +3723,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="18"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="31" ht="18" spans="1:8">
       <c r="A31" s="2" t="s">
@@ -3552,7 +3737,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="17"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" ht="21" spans="1:8">
       <c r="A32" s="4"/>
@@ -3572,7 +3757,7 @@
       <c r="G32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="7">
@@ -3592,7 +3777,7 @@
       <c r="G33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" ht="49.5" spans="1:8">
       <c r="A34" s="7">
@@ -3612,7 +3797,7 @@
       <c r="G34" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" ht="33" spans="1:8">
       <c r="A35" s="7">
@@ -3634,7 +3819,7 @@
       <c r="G35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" ht="16.5" spans="1:8">
       <c r="A36" s="7">
@@ -3656,7 +3841,7 @@
       <c r="G36" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" ht="16.5" spans="1:8">
       <c r="A37" s="7">
@@ -3678,7 +3863,7 @@
       <c r="G37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" ht="99" spans="1:8">
       <c r="A38" s="7">
@@ -3700,7 +3885,7 @@
       <c r="G38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" ht="264" spans="1:8">
       <c r="A39" s="7">
@@ -3722,7 +3907,7 @@
       <c r="G39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" ht="33" spans="1:8">
       <c r="A40" s="7">
@@ -3744,7 +3929,7 @@
       <c r="G40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" ht="16.5" spans="1:8">
       <c r="A41" s="7">
@@ -3766,7 +3951,7 @@
       <c r="G41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" ht="16.5" spans="1:8">
       <c r="A42" s="7">
@@ -3786,7 +3971,7 @@
       <c r="G42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13"/>
@@ -3798,7 +3983,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="15"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="45" ht="18" spans="1:7">
       <c r="A45" s="2" t="s">
@@ -3992,7 +4177,7 @@
       <c r="C55" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="20" t="s">
         <v>134</v>
       </c>
       <c r="E55" s="11"/>
@@ -4298,10 +4483,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4869,7 +5054,7 @@
         <v>167</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>172</v>
@@ -4963,7 +5148,9 @@
       <c r="B41" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D41" s="8" t="s">
         <v>182</v>
       </c>
@@ -4973,13 +5160,19 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" ht="16.5" spans="1:7">
+    <row r="42" ht="33" spans="1:7">
       <c r="A42" s="7">
         <v>8</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="7">
         <v>8</v>
@@ -5049,8 +5242,866 @@
       <c r="F47" s="15"/>
       <c r="G47" s="14"/>
     </row>
+    <row r="49" ht="18" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" ht="21" spans="1:7">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:7">
+      <c r="A51" s="7">
+        <v>1</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" ht="16.5" spans="1:7">
+      <c r="A52" s="7">
+        <v>2</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" ht="16.5" spans="1:7">
+      <c r="A53" s="7">
+        <v>3</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7">
+        <v>3</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" ht="16.5" spans="1:7">
+      <c r="A54" s="7">
+        <v>4</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" ht="16.5" spans="1:7">
+      <c r="A55" s="7">
+        <v>5</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7">
+        <v>5</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" ht="16.5" spans="1:7">
+      <c r="A56" s="7">
+        <v>6</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7">
+        <v>6</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" ht="33" spans="1:7">
+      <c r="A57" s="7">
+        <v>7</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7">
+        <v>7</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" ht="33" spans="1:7">
+      <c r="A58" s="7">
+        <v>8</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="7">
+        <v>8</v>
+      </c>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" ht="16.5" spans="1:7">
+      <c r="A59" s="7">
+        <v>9</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="7">
+        <v>9</v>
+      </c>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" ht="16.5" spans="1:7">
+      <c r="A60" s="7">
+        <v>10</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="7">
+        <v>10</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" ht="16.5" spans="1:7">
+      <c r="A61" s="7">
+        <v>11</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="7">
+        <v>11</v>
+      </c>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" ht="16.5" spans="1:7">
+      <c r="A62" s="7">
+        <v>12</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="7">
+        <v>12</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" ht="16.5" spans="1:7">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="65" ht="18" spans="1:7">
+      <c r="A65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" ht="21" spans="1:7">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:7">
+      <c r="A67" s="7">
+        <v>1</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" ht="16.5" spans="1:7">
+      <c r="A68" s="7">
+        <v>2</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="7">
+        <v>2</v>
+      </c>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" ht="16.5" spans="1:7">
+      <c r="A69" s="7">
+        <v>3</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="7">
+        <v>3</v>
+      </c>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" ht="16.5" spans="1:7">
+      <c r="A70" s="7">
+        <v>4</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="7">
+        <v>4</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" ht="16.5" spans="1:7">
+      <c r="A71" s="7">
+        <v>5</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="7">
+        <v>5</v>
+      </c>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" ht="16.5" spans="1:7">
+      <c r="A72" s="7">
+        <v>6</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="7">
+        <v>6</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" ht="16.5" spans="1:7">
+      <c r="A73" s="7">
+        <v>7</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="7">
+        <v>7</v>
+      </c>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" ht="16.5" spans="1:7">
+      <c r="A74" s="7">
+        <v>8</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="7">
+        <v>8</v>
+      </c>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" ht="16.5" spans="1:7">
+      <c r="A75" s="7">
+        <v>9</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="7">
+        <v>9</v>
+      </c>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" ht="16.5" spans="1:7">
+      <c r="A76" s="7">
+        <v>10</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="7">
+        <v>10</v>
+      </c>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" ht="16.5" spans="1:7">
+      <c r="A77" s="7">
+        <v>11</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="7">
+        <v>11</v>
+      </c>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" ht="16.5" spans="1:7">
+      <c r="A78" s="7">
+        <v>12</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="7">
+        <v>12</v>
+      </c>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" ht="16.5" spans="1:7">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="81" ht="18" spans="1:7">
+      <c r="A81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" ht="21" spans="1:7">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" ht="16.5" spans="1:7">
+      <c r="A83" s="7">
+        <v>1</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" ht="16.5" spans="1:7">
+      <c r="A84" s="7">
+        <v>2</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="7">
+        <v>2</v>
+      </c>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" ht="16.5" spans="1:7">
+      <c r="A85" s="7">
+        <v>3</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="7">
+        <v>3</v>
+      </c>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" ht="16.5" spans="1:7">
+      <c r="A86" s="7">
+        <v>4</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="7">
+        <v>4</v>
+      </c>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" ht="16.5" spans="1:7">
+      <c r="A87" s="7">
+        <v>5</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="7">
+        <v>5</v>
+      </c>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" ht="16.5" spans="1:7">
+      <c r="A88" s="7">
+        <v>6</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="7">
+        <v>6</v>
+      </c>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" ht="16.5" spans="1:7">
+      <c r="A89" s="7">
+        <v>7</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="7">
+        <v>7</v>
+      </c>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" ht="16.5" spans="1:7">
+      <c r="A90" s="7">
+        <v>8</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="7">
+        <v>8</v>
+      </c>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" ht="16.5" spans="1:7">
+      <c r="A91" s="7">
+        <v>9</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="7">
+        <v>9</v>
+      </c>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" ht="16.5" spans="1:7">
+      <c r="A92" s="7">
+        <v>10</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="7">
+        <v>10</v>
+      </c>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" ht="16.5" spans="1:7">
+      <c r="A93" s="7">
+        <v>11</v>
+      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="7">
+        <v>11</v>
+      </c>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" ht="16.5" spans="1:7">
+      <c r="A94" s="7">
+        <v>12</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="7">
+        <v>12</v>
+      </c>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" ht="16.5" spans="1:7">
+      <c r="A95" s="13"/>
+      <c r="B95" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="97" ht="18" spans="1:7">
+      <c r="A97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" ht="21" spans="1:7">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="1:7">
+      <c r="A99" s="7">
+        <v>1</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="7">
+        <v>1</v>
+      </c>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" ht="16.5" spans="1:7">
+      <c r="A100" s="7">
+        <v>2</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="7">
+        <v>2</v>
+      </c>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" ht="16.5" spans="1:7">
+      <c r="A101" s="7">
+        <v>3</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="7">
+        <v>3</v>
+      </c>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" ht="16.5" spans="1:7">
+      <c r="A102" s="7">
+        <v>4</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="7">
+        <v>4</v>
+      </c>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" ht="16.5" spans="1:7">
+      <c r="A103" s="7">
+        <v>5</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="7">
+        <v>5</v>
+      </c>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" ht="16.5" spans="1:7">
+      <c r="A104" s="7">
+        <v>6</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="7">
+        <v>6</v>
+      </c>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" ht="16.5" spans="1:7">
+      <c r="A105" s="7">
+        <v>7</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="7">
+        <v>7</v>
+      </c>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" ht="16.5" spans="1:7">
+      <c r="A106" s="7">
+        <v>8</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="7">
+        <v>8</v>
+      </c>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" ht="16.5" spans="1:7">
+      <c r="A107" s="7">
+        <v>9</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="7">
+        <v>9</v>
+      </c>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" ht="16.5" spans="1:7">
+      <c r="A108" s="7">
+        <v>10</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="7">
+        <v>10</v>
+      </c>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" ht="16.5" spans="1:7">
+      <c r="A109" s="7">
+        <v>11</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="7">
+        <v>11</v>
+      </c>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" ht="16.5" spans="1:7">
+      <c r="A110" s="7">
+        <v>12</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="7">
+        <v>12</v>
+      </c>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" ht="16.5" spans="1:7">
+      <c r="A111" s="13"/>
+      <c r="B111" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B15:G15"/>
@@ -5060,7 +6111,1161 @@
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B47:G47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="B111:G111"/>
     <mergeCell ref="D19:D20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D56" r:id="rId1" display="http://192.168.3.22/ProductSeries/125.html"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:C68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="21" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="17" ht="18" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="21" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="33" spans="1:7">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" ht="33" spans="1:7">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7">
+        <v>6</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7">
+        <v>8</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="7">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="7">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="7">
+        <v>11</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="7">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="33" ht="18" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="21" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:7">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" ht="33" spans="1:7">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" ht="33" spans="1:7">
+      <c r="A37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:7">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:7">
+      <c r="A39" s="7">
+        <v>5</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="7">
+        <v>6</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7">
+        <v>6</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="7">
+        <v>7</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7">
+        <v>7</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="7">
+        <v>8</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7">
+        <v>8</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:7">
+      <c r="A43" s="7">
+        <v>9</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7">
+        <v>9</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:7">
+      <c r="A44" s="7">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="7">
+        <v>10</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:7">
+      <c r="A45" s="7">
+        <v>11</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="7">
+        <v>11</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:7">
+      <c r="A46" s="7">
+        <v>12</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7">
+        <v>12</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:7">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="49" ht="18" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" ht="21" spans="1:7">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:7">
+      <c r="A51" s="7">
+        <v>1</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:7">
+      <c r="A52" s="7">
+        <v>2</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" ht="165" spans="1:7">
+      <c r="A53" s="7">
+        <v>3</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7">
+        <v>3</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" ht="33" spans="1:7">
+      <c r="A54" s="7">
+        <v>4</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" ht="16.5" spans="1:7">
+      <c r="A55" s="7">
+        <v>5</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7">
+        <v>5</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" ht="16.5" spans="1:7">
+      <c r="A56" s="7">
+        <v>6</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7">
+        <v>6</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" ht="16.5" spans="1:7">
+      <c r="A57" s="7">
+        <v>7</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7">
+        <v>7</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" ht="16.5" spans="1:7">
+      <c r="A58" s="7">
+        <v>8</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="7">
+        <v>8</v>
+      </c>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" ht="16.5" spans="1:7">
+      <c r="A59" s="7">
+        <v>9</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="7">
+        <v>9</v>
+      </c>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" ht="16.5" spans="1:7">
+      <c r="A60" s="7">
+        <v>10</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="7">
+        <v>10</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" ht="16.5" spans="1:7">
+      <c r="A61" s="7">
+        <v>11</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="7">
+        <v>11</v>
+      </c>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" ht="16.5" spans="1:7">
+      <c r="A62" s="7">
+        <v>12</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="7">
+        <v>12</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" ht="16.5" spans="1:7">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="65" ht="18" spans="1:7">
+      <c r="A65" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" ht="21" spans="1:7">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:7">
+      <c r="A67" s="7">
+        <v>1</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" ht="16.5" spans="1:7">
+      <c r="A68" s="7">
+        <v>2</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="7">
+        <v>2</v>
+      </c>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" ht="16.5" spans="1:7">
+      <c r="A69" s="7">
+        <v>3</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="7">
+        <v>3</v>
+      </c>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" ht="33" spans="1:7">
+      <c r="A70" s="7">
+        <v>4</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="7">
+        <v>4</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" ht="16.5" spans="1:7">
+      <c r="A71" s="7">
+        <v>5</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="7">
+        <v>5</v>
+      </c>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" ht="16.5" spans="1:7">
+      <c r="A72" s="7">
+        <v>6</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="7">
+        <v>6</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" ht="16.5" spans="1:7">
+      <c r="A73" s="7">
+        <v>7</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="7">
+        <v>7</v>
+      </c>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" ht="16.5" spans="1:7">
+      <c r="A74" s="7">
+        <v>8</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="7">
+        <v>8</v>
+      </c>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" ht="16.5" spans="1:7">
+      <c r="A75" s="7">
+        <v>9</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="7">
+        <v>9</v>
+      </c>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" ht="16.5" spans="1:7">
+      <c r="A76" s="7">
+        <v>10</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="7">
+        <v>10</v>
+      </c>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" ht="16.5" spans="1:7">
+      <c r="A77" s="7">
+        <v>11</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="7">
+        <v>11</v>
+      </c>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" ht="16.5" spans="1:7">
+      <c r="A78" s="7">
+        <v>12</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="7">
+        <v>12</v>
+      </c>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" ht="16.5" spans="1:7">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B79:G79"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5068,7 +7273,256 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="21" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="33" spans="1:7">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="33" spans="1:7">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G15"/>
@@ -5090,14 +7544,14 @@
   <sheetData>
     <row r="1" ht="18" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="G1" s="2"/>
     </row>

--- a/working/工作日志.杨炜.4月份.xlsx
+++ b/working/工作日志.杨炜.4月份.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273">
   <si>
     <t>下周计划</t>
   </si>
@@ -830,10 +830,105 @@
     <t>php根据屏幕大小调用不同media screen</t>
   </si>
   <si>
-    <t>兼容手机端显示，因手机端将会有，所以pc端页面不做手机版自适应</t>
+    <t>兼容手机端显示，因手机端将会有+结构已固定，所以pc端页面不做手机版自适应
+后改为根据判断是否通过手机浏览的时候执行</t>
   </si>
   <si>
     <t>新手引导头部登录状态修正</t>
+  </si>
+  <si>
+    <t>制作着陆页</t>
+  </si>
+  <si>
+    <t>等待效果图</t>
+  </si>
+  <si>
+    <t>新手引导页面增加外部打开链接</t>
+  </si>
+  <si>
+    <t>补回头部模版的新手引导链接</t>
+  </si>
+  <si>
+    <t>28日工作日志（周二）</t>
+  </si>
+  <si>
+    <t>29日工作计划（周三）</t>
+  </si>
+  <si>
+    <t>对p2b大讲堂进行自适应调整</t>
+  </si>
+  <si>
+    <t>30日工作计划（周四）</t>
+  </si>
+  <si>
+    <t>修正首页在960尺寸下的兼容性</t>
+  </si>
+  <si>
+    <t>产品链接去掉+名字居中对齐</t>
+  </si>
+  <si>
+    <t>产品链接去掉-提交给明林-完成
+名字居中对齐-完成</t>
+  </si>
+  <si>
+    <t>http://www.wjcaifu.com/gonggao/97.html</t>
+  </si>
+  <si>
+    <t>IE7下顶部栏兼容</t>
+  </si>
+  <si>
+    <t>投资管理调用产品页内容</t>
+  </si>
+  <si>
+    <t>首页登录点击反应慢</t>
+  </si>
+  <si>
+    <t>打算尝试提供等待反馈</t>
+  </si>
+  <si>
+    <t>新手引导顶部样式</t>
+  </si>
+  <si>
+    <t>960下首页俱乐部活动文本高度</t>
+  </si>
+  <si>
+    <t>更改首页标题、关键字、描述</t>
+  </si>
+  <si>
+    <t>下掉最后一个banner屏</t>
+  </si>
+  <si>
+    <t>调整首页登录注册框切换按钮颜色</t>
+  </si>
+  <si>
+    <t>隐藏产品页“时间”列</t>
+  </si>
+  <si>
+    <t>修正首页banner图</t>
+  </si>
+  <si>
+    <t>30日工作日志（周四）</t>
+  </si>
+  <si>
+    <t>4日工作计划（周一）</t>
+  </si>
+  <si>
+    <t>新手引导自适应</t>
+  </si>
+  <si>
+    <t>资讯中心列表页自适应</t>
+  </si>
+  <si>
+    <t>新手引导bug</t>
+  </si>
+  <si>
+    <t>4月活动页面bug</t>
+  </si>
+  <si>
+    <t>首页表格a标签样式更改</t>
+  </si>
+  <si>
+    <t>产品列表页面产品名称添加a标签并加上button功能</t>
   </si>
   <si>
     <t>日工作日志（周）</t>
@@ -847,12 +942,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -889,6 +984,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1217,30 +1319,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,6 +1394,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1433,14 +1541,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -1448,6 +1556,7 @@
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
     <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1789,195 +1898,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="57" customWidth="1"/>
-    <col min="4" max="5" width="9" style="57"/>
-    <col min="6" max="6" width="15.625" style="57" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="57" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="57"/>
+    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="58" customWidth="1"/>
+    <col min="4" max="5" width="9" style="58"/>
+    <col min="6" max="6" width="15.625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="58" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="62">
+      <c r="A4" s="63">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="62">
-        <v>2</v>
-      </c>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="63">
+        <v>2</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="62">
+      <c r="A6" s="63">
         <v>3</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="62">
+      <c r="A7" s="63">
         <v>4</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="65"/>
+      <c r="F21" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1998,8 +2107,8 @@
   <sheetPr/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2010,7 +2119,7 @@
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
@@ -2020,226 +2129,226 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="22"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="21.75" spans="1:8">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" ht="50.25" spans="1:8">
-      <c r="A3" s="31">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="31">
+      <c r="C3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" ht="33" spans="1:8">
-      <c r="A4" s="37">
-        <v>2</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="37">
-        <v>2</v>
-      </c>
-      <c r="G4" s="40" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="38">
+        <v>2</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="37">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="37">
+      <c r="E5" s="40"/>
+      <c r="F5" s="38">
         <v>3</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="41">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="37">
+      <c r="D6" s="43"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="38">
         <v>4</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" ht="33" spans="1:8">
-      <c r="A7" s="41">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="37">
+      <c r="E7" s="40"/>
+      <c r="F7" s="38">
         <v>5</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="41">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="37">
+      <c r="D8" s="46"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="38">
         <v>6</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="37">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="37">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="38">
         <v>7</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="30"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="37">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="37">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="38">
         <v>8</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="37">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="37">
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="38">
         <v>9</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" ht="17.25" spans="1:8">
-      <c r="A12" s="37">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="49">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="50">
         <v>10</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="21"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="54"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="15" ht="18" spans="1:8">
       <c r="A15" s="2" t="s">
@@ -2253,7 +2362,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2275,7 +2384,7 @@
       <c r="G16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" ht="49.5" spans="1:8">
       <c r="A17" s="7">
@@ -2297,16 +2406,16 @@
       <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
         <v>2</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="8"/>
@@ -2317,16 +2426,16 @@
       <c r="G18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="8" t="s">
         <v>41</v>
       </c>
@@ -2337,7 +2446,7 @@
       <c r="G19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
@@ -2357,7 +2466,7 @@
       <c r="G20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7">
@@ -2377,16 +2486,16 @@
       <c r="G21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" ht="33" spans="1:8">
       <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
@@ -2397,7 +2506,7 @@
       <c r="G22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" ht="49.5" spans="1:8">
       <c r="A23" s="7">
@@ -2419,7 +2528,7 @@
       <c r="G23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" ht="33" spans="1:8">
       <c r="A24" s="7">
@@ -2441,7 +2550,7 @@
       <c r="G24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" ht="49.5" spans="1:8">
       <c r="A25" s="7">
@@ -2459,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7">
@@ -2479,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="13"/>
@@ -2491,7 +2600,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="19"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="29" ht="18" spans="1:8">
       <c r="A29" s="2" t="s">
@@ -2505,7 +2614,7 @@
         <v>57</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="18"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" ht="21" spans="1:8">
       <c r="A30" s="4"/>
@@ -2525,7 +2634,7 @@
       <c r="G30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" ht="49.5" spans="1:8">
       <c r="A31" s="7">
@@ -2545,16 +2654,16 @@
       <c r="G31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>2</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
@@ -2565,16 +2674,16 @@
       <c r="G32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" ht="33" spans="1:8">
       <c r="A33" s="7">
         <v>3</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="8" t="s">
         <v>45</v>
       </c>
@@ -2585,7 +2694,7 @@
       <c r="G33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7">
@@ -2605,7 +2714,7 @@
       <c r="G34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7">
@@ -2625,7 +2734,7 @@
       <c r="G35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
@@ -2645,16 +2754,16 @@
       <c r="G36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7">
         <v>7</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -2667,7 +2776,7 @@
       <c r="G37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" ht="115.5" spans="1:8">
       <c r="A38" s="7">
@@ -2687,16 +2796,16 @@
         <v>8</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" ht="132" spans="1:8">
       <c r="A39" s="7">
         <v>9</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="57" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -2707,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
@@ -2721,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="13"/>
@@ -2733,7 +2842,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="15"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="19"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="43" ht="18" spans="1:8">
       <c r="A43" s="2" t="s">
@@ -2747,7 +2856,7 @@
         <v>68</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" ht="21" spans="1:8">
       <c r="A44" s="4"/>
@@ -2767,7 +2876,7 @@
       <c r="G44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="19"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
@@ -2784,10 +2893,10 @@
       <c r="F45" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" ht="49.5" spans="1:8">
       <c r="A46" s="7">
@@ -2807,7 +2916,7 @@
       <c r="G46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="19"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7">
@@ -2829,7 +2938,7 @@
       <c r="G47" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="19"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" ht="82.5" spans="1:8">
       <c r="A48" s="7">
@@ -2849,7 +2958,7 @@
       <c r="G48" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="19"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" ht="66" spans="1:8">
       <c r="A49" s="7">
@@ -2871,7 +2980,7 @@
       <c r="G49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="19"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7">
@@ -2891,7 +3000,7 @@
       <c r="G50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="19"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
@@ -2913,7 +3022,7 @@
       <c r="G51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="19"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" ht="33" spans="1:8">
       <c r="A52" s="7">
@@ -2935,7 +3044,7 @@
       <c r="G52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="19"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7">
@@ -2953,7 +3062,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="8"/>
-      <c r="H53" s="19"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
@@ -2967,7 +3076,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="19"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
@@ -2979,7 +3088,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="15"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="19"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="57" ht="18" spans="1:8">
       <c r="A57" s="2" t="s">
@@ -2993,7 +3102,7 @@
         <v>80</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="18"/>
+      <c r="H57" s="19"/>
     </row>
     <row r="58" ht="21" spans="1:8">
       <c r="A58" s="4"/>
@@ -3013,7 +3122,7 @@
       <c r="G58" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="19"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
@@ -3031,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="8"/>
-      <c r="H59" s="19"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
@@ -3049,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="8"/>
-      <c r="H60" s="19"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7">
@@ -3067,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="8"/>
-      <c r="H61" s="19"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
@@ -3085,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="G62" s="8"/>
-      <c r="H62" s="19"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
@@ -3099,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="8"/>
-      <c r="H63" s="19"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
@@ -3113,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="8"/>
-      <c r="H64" s="19"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="7">
@@ -3127,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="8"/>
-      <c r="H65" s="19"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
@@ -3141,7 +3250,7 @@
         <v>8</v>
       </c>
       <c r="G66" s="8"/>
-      <c r="H66" s="19"/>
+      <c r="H66" s="20"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7">
@@ -3155,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="8"/>
-      <c r="H67" s="19"/>
+      <c r="H67" s="20"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
@@ -3169,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="8"/>
-      <c r="H68" s="19"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="13"/>
@@ -3181,7 +3290,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="15"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="19"/>
+      <c r="H69" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3245,7 +3354,7 @@
         <v>85</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" ht="21" spans="1:8">
       <c r="A2" s="4"/>
@@ -3265,7 +3374,7 @@
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="7">
@@ -3285,7 +3394,7 @@
       <c r="G3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="7">
@@ -3305,7 +3414,7 @@
       <c r="G4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="7">
@@ -3325,7 +3434,7 @@
       <c r="G5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" ht="33" spans="1:8">
       <c r="A6" s="7">
@@ -3345,7 +3454,7 @@
       <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="7">
@@ -3363,7 +3472,7 @@
       <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="7">
@@ -3383,7 +3492,7 @@
       <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" ht="33" spans="1:8">
       <c r="A9" s="7">
@@ -3403,7 +3512,7 @@
       <c r="G9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" ht="16.5" spans="1:8">
       <c r="A10" s="7">
@@ -3419,7 +3528,7 @@
       <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="7">
@@ -3435,7 +3544,7 @@
       <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="7">
@@ -3451,7 +3560,7 @@
       <c r="G12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="7">
@@ -3467,7 +3576,7 @@
       <c r="G13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="13"/>
@@ -3479,7 +3588,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="16" ht="18" spans="1:8">
       <c r="A16" s="2" t="s">
@@ -3493,7 +3602,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" ht="21" spans="1:8">
       <c r="A17" s="4"/>
@@ -3513,7 +3622,7 @@
       <c r="G17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" ht="33" spans="1:8">
       <c r="A18" s="7">
@@ -3533,7 +3642,7 @@
       <c r="G18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="7">
@@ -3555,7 +3664,7 @@
       <c r="G19" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="7">
@@ -3575,7 +3684,7 @@
       <c r="G20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" ht="33" spans="1:8">
       <c r="A21" s="7">
@@ -3595,7 +3704,7 @@
       <c r="G21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="7">
@@ -3615,7 +3724,7 @@
       <c r="G22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="7">
@@ -3631,7 +3740,7 @@
       <c r="G23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="7">
@@ -3647,7 +3756,7 @@
       <c r="G24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="7">
@@ -3663,7 +3772,7 @@
       <c r="G25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="7">
@@ -3679,7 +3788,7 @@
       <c r="G26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="7">
@@ -3695,7 +3804,7 @@
       <c r="G27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="7">
@@ -3711,7 +3820,7 @@
       <c r="G28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="13"/>
@@ -3723,7 +3832,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="19"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="31" ht="18" spans="1:8">
       <c r="A31" s="2" t="s">
@@ -3737,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="18"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" ht="21" spans="1:8">
       <c r="A32" s="4"/>
@@ -3757,7 +3866,7 @@
       <c r="G32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="7">
@@ -3777,7 +3886,7 @@
       <c r="G33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" ht="49.5" spans="1:8">
       <c r="A34" s="7">
@@ -3797,7 +3906,7 @@
       <c r="G34" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" ht="33" spans="1:8">
       <c r="A35" s="7">
@@ -3819,7 +3928,7 @@
       <c r="G35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" ht="16.5" spans="1:8">
       <c r="A36" s="7">
@@ -3841,7 +3950,7 @@
       <c r="G36" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" ht="16.5" spans="1:8">
       <c r="A37" s="7">
@@ -3863,7 +3972,7 @@
       <c r="G37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" ht="99" spans="1:8">
       <c r="A38" s="7">
@@ -3885,7 +3994,7 @@
       <c r="G38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" ht="264" spans="1:8">
       <c r="A39" s="7">
@@ -3907,7 +4016,7 @@
       <c r="G39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" ht="33" spans="1:8">
       <c r="A40" s="7">
@@ -3929,7 +4038,7 @@
       <c r="G40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="19"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" ht="16.5" spans="1:8">
       <c r="A41" s="7">
@@ -3951,7 +4060,7 @@
       <c r="G41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" ht="16.5" spans="1:8">
       <c r="A42" s="7">
@@ -3971,7 +4080,7 @@
       <c r="G42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="19"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13"/>
@@ -3983,7 +4092,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="15"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="45" ht="18" spans="1:7">
       <c r="A45" s="2" t="s">
@@ -4177,7 +4286,7 @@
       <c r="C55" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="21" t="s">
         <v>134</v>
       </c>
       <c r="E55" s="11"/>
@@ -4816,7 +4925,7 @@
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>165</v>
       </c>
       <c r="E19" s="10"/>
@@ -4835,7 +4944,7 @@
       <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="11"/>
       <c r="F20" s="7">
         <v>2</v>
@@ -5367,7 +5476,7 @@
       <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="18" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="11"/>
@@ -7276,10 +7385,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7333,7 +7442,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -7350,7 +7459,7 @@
         <v>219</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
@@ -7367,7 +7476,7 @@
         <v>236</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="11"/>
@@ -7376,14 +7485,16 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" ht="33" spans="1:7">
+    <row r="6" ht="49.5" spans="1:7">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>238</v>
       </c>
@@ -7400,7 +7511,9 @@
       <c r="B7" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
       <c r="F7" s="7">
@@ -7412,21 +7525,31 @@
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="7">
         <v>6</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" ht="33" spans="1:7">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="11"/>
       <c r="F9" s="7">
@@ -7434,12 +7557,16 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" ht="33" spans="1:7">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="11"/>
       <c r="F10" s="7">
@@ -7510,12 +7637,705 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
     </row>
+    <row r="17" ht="18" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="21" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" ht="33" spans="1:7">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7">
+        <v>6</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7">
+        <v>8</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="7">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="7">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="7">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="7">
+        <v>11</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="7">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="33" ht="18" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="21" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="33" spans="1:7">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" ht="33" spans="1:7">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:7">
+      <c r="A37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:7">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:7">
+      <c r="A39" s="7">
+        <v>5</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="7">
+        <v>6</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7">
+        <v>6</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" ht="33" spans="1:7">
+      <c r="A41" s="7">
+        <v>7</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7">
+        <v>7</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" ht="33" spans="1:7">
+      <c r="A42" s="7">
+        <v>8</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7">
+        <v>8</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:7">
+      <c r="A43" s="7">
+        <v>9</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7">
+        <v>9</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" ht="33" spans="1:7">
+      <c r="A44" s="7">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="7">
+        <v>10</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:7">
+      <c r="A45" s="7">
+        <v>11</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="7">
+        <v>11</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:7">
+      <c r="A46" s="7">
+        <v>12</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7">
+        <v>12</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:7">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="49" ht="18" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" ht="21" spans="1:7">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:7">
+      <c r="A51" s="7">
+        <v>1</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" ht="16.5" spans="1:7">
+      <c r="A52" s="7">
+        <v>2</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" ht="16.5" spans="1:7">
+      <c r="A53" s="7">
+        <v>3</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7">
+        <v>3</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" ht="16.5" spans="1:7">
+      <c r="A54" s="7">
+        <v>4</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" ht="16.5" spans="1:7">
+      <c r="A55" s="7">
+        <v>5</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7">
+        <v>5</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" ht="49.5" spans="1:7">
+      <c r="A56" s="7">
+        <v>6</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7">
+        <v>6</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" ht="16.5" spans="1:7">
+      <c r="A57" s="7">
+        <v>7</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7">
+        <v>7</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" ht="16.5" spans="1:7">
+      <c r="A58" s="7">
+        <v>8</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="7">
+        <v>8</v>
+      </c>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" ht="16.5" spans="1:7">
+      <c r="A59" s="7">
+        <v>9</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="7">
+        <v>9</v>
+      </c>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" ht="16.5" spans="1:7">
+      <c r="A60" s="7">
+        <v>10</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="7">
+        <v>10</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" ht="16.5" spans="1:7">
+      <c r="A61" s="7">
+        <v>11</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="7">
+        <v>11</v>
+      </c>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" ht="16.5" spans="1:7">
+      <c r="A62" s="7">
+        <v>12</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="7">
+        <v>12</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" ht="16.5" spans="1:7">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B63:G63"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D36" r:id="rId1" display="http://www.wjcaifu.com/gonggao/97.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -7544,14 +8364,14 @@
   <sheetData>
     <row r="1" ht="18" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="G1" s="2"/>
     </row>
